--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:30:40+00:00</t>
+    <t>2025-07-11T07:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:36:43+00:00</t>
+    <t>2025-07-11T07:41:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:41:04+00:00</t>
+    <t>2025-07-11T08:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T08:58:20+00:00</t>
+    <t>2025-07-11T09:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:01:56+00:00</t>
+    <t>2025-07-11T11:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:49:25+00:00</t>
+    <t>2025-07-11T11:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:55:35+00:00</t>
+    <t>2025-07-11T12:03:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:03:33+00:00</t>
+    <t>2025-07-11T12:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:06:27+00:00</t>
+    <t>2025-07-11T12:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:24:54+00:00</t>
+    <t>2025-07-11T12:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,37 +78,40 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Le jeu de valeurs à utiliser pour coder le type de document de la ressource *Composition* d'une liste des Traitements Médicamenteux Courants.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[false]</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>isCurrentMedication</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Le jeu de valeurs à utiliser pour coder le type de document de la ressource *Composition* d'une liste des Traitements Médicamenteux Courants.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[false]</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>isCurrentMedication</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>System URI</t>
@@ -415,18 +418,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:29:53+00:00</t>
+    <t>2025-07-11T12:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:36:09+00:00</t>
+    <t>2025-07-11T12:44:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:44:15+00:00</t>
+    <t>2025-07-11T12:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:52:14+00:00</t>
+    <t>2025-07-11T13:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T13:00:29+00:00</t>
+    <t>2025-07-15T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T07:25:49+00:00</t>
+    <t>2025-07-18T11:27:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:27:43+00:00</t>
+    <t>2025-07-18T11:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:28:48+00:00</t>
+    <t>2025-07-18T11:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:31:51+00:00</t>
+    <t>2025-07-18T11:43:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:43:48+00:00</t>
+    <t>2025-07-18T13:01:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:01:32+00:00</t>
+    <t>2025-07-18T13:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:25:27+00:00</t>
+    <t>2025-07-18T13:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:29:35+00:00</t>
+    <t>2025-07-18T13:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:32:21+00:00</t>
+    <t>2025-07-18T13:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:36:35+00:00</t>
+    <t>2025-07-18T14:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:10:10+00:00</t>
+    <t>2025-07-18T14:20:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:20:27+00:00</t>
+    <t>2025-07-18T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:22:51+00:00</t>
+    <t>2025-07-18T14:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:33:50+00:00</t>
+    <t>2025-07-21T08:56:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T08:56:18+00:00</t>
+    <t>2025-07-21T09:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:00:57+00:00</t>
+    <t>2025-07-21T09:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:13:17+00:00</t>
+    <t>2025-07-21T13:05:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T13:05:14+00:00</t>
+    <t>2025-07-21T13:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-review/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T13:09:46+00:00</t>
+    <t>2025-07-22T16:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
